--- a/Luban/Configs/Datas/t_role.xlsx
+++ b/Luban/Configs/Datas/t_role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11A9D2D-8522-4B68-8255-A9198C8C85C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DC1DD-4E0E-403A-84E9-982DCEF42476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>死亡音效</t>
   </si>
   <si>
-    <t>[0,10000][1,10001][2,10002][3,10003][4,10004][5,10005][6,10006][7,10007][8,10008]</t>
-  </si>
-  <si>
     <t>sounds/Character/swordman/sm_dmg_01,sounds/Character/swordman/sm_dmg_02,sounds/Character/swordman/sm_dmg_03,</t>
   </si>
   <si>
@@ -112,6 +109,10 @@
   </si>
   <si>
     <t>career</t>
+  </si>
+  <si>
+    <t>[0,10000][1,10004][2,10007][3,10008][4,10001][5,10002][6,10003][7,10005][8,10006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +440,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,10 +450,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -484,7 +485,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -519,7 +520,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -572,16 +573,16 @@
         <v>1.5</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/t_role.xlsx
+++ b/Luban/Configs/Datas/t_role.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545DC1DD-4E0E-403A-84E9-982DCEF42476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE8140-4347-4568-893C-3ED91AEF4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <t>死亡音效</t>
   </si>
   <si>
-    <t>sounds/Character/swordman/sm_dmg_01,sounds/Character/swordman/sm_dmg_02,sounds/Character/swordman/sm_dmg_03,</t>
-  </si>
-  <si>
-    <t>sounds/Character/swordman/sm_die</t>
-  </si>
-  <si>
     <t>##var</t>
   </si>
   <si>
@@ -112,6 +106,14 @@
   </si>
   <si>
     <t>[0,10000][1,10004][2,10007][3,10008][4,10001][5,10002][6,10003][7,10005][8,10006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_dmg_01.ogg,sm_dmg_02.ogg,sm_dmg_03.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_die.ogg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +442,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,10 +452,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -485,7 +487,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -520,7 +522,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -576,13 +578,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
